--- a/excel/finished/8高炉/热风炉日报表.xlsx
+++ b/excel/finished/8高炉/热风炉日报表.xlsx
@@ -503,18 +503,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DomeTemp</t>
-  </si>
-  <si>
-    <t>DomeTempRad</t>
-  </si>
-  <si>
-    <t>DomePress</t>
-  </si>
-  <si>
-    <t>WasteTemp</t>
-  </si>
-  <si>
     <t>ResidualOxygen/start</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -578,30 +566,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>05A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BranchPipeGasFlow/start</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -674,10 +638,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Press</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BF8_L2C_HS_HS1_Press_1m_avg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -707,6 +667,50 @@
   </si>
   <si>
     <t>intervalTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DomeTemp/avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DomeTempRad/avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DomePress/avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press/avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WasteTemp/avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05A/avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05B/avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05C/avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05D/avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05E/avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05F/avg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1070,7 +1074,34 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1100,34 +1131,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1462,7 +1466,7 @@
   <dimension ref="A1:AR85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1479,38 +1483,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="33">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="21">
         <f>[1]_metadata!B1</f>
         <v>42985.583333333299</v>
       </c>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
@@ -1530,137 +1534,137 @@
       <c r="AR1" s="2"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="22" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="23"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="32"/>
     </row>
     <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="20" t="s">
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20" t="s">
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20" t="s">
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20" t="s">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20" t="s">
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20" t="s">
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20" t="s">
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="21"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="30"/>
     </row>
     <row r="4" spans="1:44" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="28"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1673,12 +1677,12 @@
       <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="31"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="17" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>4</v>
@@ -15744,14 +15748,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:AF2"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AF3"/>
-    <mergeCell ref="K3:N3"/>
     <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="AK3:AN3"/>
     <mergeCell ref="AO3:AR3"/>
@@ -15764,6 +15760,14 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:V3"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:AF2"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AF3"/>
+    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15814,8 +15818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15847,136 +15851,136 @@
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
         <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
         <v>147</v>
       </c>
       <c r="E1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V1" t="s">
+        <v>159</v>
+      </c>
+      <c r="W1" t="s">
+        <v>160</v>
+      </c>
+      <c r="X1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF1" t="s">
         <v>200</v>
       </c>
-      <c r="F1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O1" t="s">
-        <v>156</v>
-      </c>
-      <c r="P1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>158</v>
-      </c>
-      <c r="R1" t="s">
-        <v>159</v>
-      </c>
-      <c r="S1" t="s">
-        <v>160</v>
-      </c>
-      <c r="T1" t="s">
-        <v>161</v>
-      </c>
-      <c r="U1" t="s">
-        <v>162</v>
-      </c>
-      <c r="V1" t="s">
-        <v>163</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AG1" t="s">
         <v>164</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AH1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>165</v>
       </c>
-      <c r="Y1" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AK1" t="s">
         <v>167</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AL1" t="s">
         <v>168</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AM1" t="s">
         <v>169</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AN1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>170</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AR1" t="s">
         <v>171</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.15">
@@ -15990,7 +15994,7 @@
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="J2" t="s">
         <v>142</v>
@@ -16032,7 +16036,7 @@
         <v>92</v>
       </c>
       <c r="AO2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.15">
@@ -16046,7 +16050,7 @@
         <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="J3" t="s">
         <v>96</v>
@@ -16088,12 +16092,12 @@
         <v>108</v>
       </c>
       <c r="AO3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.15">
       <c r="F4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G4" t="s">
         <v>111</v>
@@ -16102,7 +16106,7 @@
         <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="J4" t="s">
         <v>112</v>
@@ -16144,7 +16148,7 @@
         <v>124</v>
       </c>
       <c r="AO4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.15">
@@ -16158,7 +16162,7 @@
         <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="J5" t="s">
         <v>128</v>
@@ -16200,7 +16204,7 @@
         <v>140</v>
       </c>
       <c r="AO5" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
